--- a/business/april2019_latest.xlsx
+++ b/business/april2019_latest.xlsx
@@ -4097,7 +4097,7 @@
   <dimension ref="A1:BC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/business/april2019_latest.xlsx
+++ b/business/april2019_latest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="19420" windowHeight="7940" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="19420" windowHeight="7940" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="stock_details" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="summry_details" sheetId="14" r:id="rId14"/>
     <sheet name="final_sheet_all_details" sheetId="18" r:id="rId15"/>
     <sheet name="marriage_expenses" sheetId="12" r:id="rId16"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">marriage_expenses!$A$1:$D$26</definedName>
@@ -4096,7 +4097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -7391,7 +7392,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8114,6 +8115,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A8:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>675868</v>
+      </c>
+      <c r="I8" s="2">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <f>22500*48</f>
+        <v>1080000</v>
+      </c>
+      <c r="L8">
+        <f>K8-H8</f>
+        <v>404132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>996000</v>
+      </c>
+      <c r="L9">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>300000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
